--- a/_Lang_Korean/Lang/KR/Game/KeyItem.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.18</t>
+    <t xml:space="preserve">EA 23.23 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>
